--- a/refs/KreamerExcel.xlsx
+++ b/refs/KreamerExcel.xlsx
@@ -1025,6 +1025,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1033,12 +1039,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000ff"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1104,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1115,16 +1115,19 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
@@ -1141,6 +1144,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1456,40 +1462,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="14" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="16" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="15" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1532,7 +1538,7 @@
       <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -1574,7 +1580,7 @@
       <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
@@ -1600,7 +1606,7 @@
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1609,49 +1615,49 @@
       <c r="D2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>100</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>-48000</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="8">
         <v>400000</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="8">
         <v>1</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="8">
         <v>14</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="8">
         <v>100</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>0</v>
-      </c>
-      <c r="R2" s="7">
-        <v>0</v>
-      </c>
-      <c r="S2" s="7">
+      <c r="P2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0</v>
+      </c>
+      <c r="S2" s="8">
         <v>2200</v>
       </c>
       <c r="T2" s="1" t="s">
@@ -1660,25 +1666,25 @@
       <c r="U2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="8">
         <v>435000</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W2" s="8">
         <v>1</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="8">
         <v>45</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y2" s="8">
         <v>62028</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="7">
+      <c r="AA2" s="8">
         <v>106</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="AB2" s="8">
         <v>390000</v>
       </c>
       <c r="AC2" s="1" t="s">
@@ -1693,10 +1699,10 @@
       <c r="AF2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG2" s="7">
+      <c r="AG2" s="8">
         <v>1</v>
       </c>
-      <c r="AH2" s="7">
+      <c r="AH2" s="8">
         <v>778</v>
       </c>
     </row>
@@ -1704,7 +1710,7 @@
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1713,49 +1719,49 @@
       <c r="D3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>100</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>50000</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="8">
         <v>549000</v>
       </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
         <v>4</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="8">
         <v>100</v>
       </c>
-      <c r="P3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
+      <c r="P3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0</v>
+      </c>
+      <c r="S3" s="8">
         <v>2200</v>
       </c>
       <c r="T3" s="1" t="s">
@@ -1764,25 +1770,25 @@
       <c r="U3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="8">
         <v>549000</v>
       </c>
-      <c r="W3" s="7">
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
+      <c r="W3" s="8">
+        <v>0</v>
+      </c>
+      <c r="X3" s="8">
         <v>27</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="8">
         <v>62028</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA3" s="7">
+      <c r="AA3" s="8">
         <v>106</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AB3" s="8">
         <v>390000</v>
       </c>
       <c r="AC3" s="1" t="s">
@@ -1797,10 +1803,10 @@
       <c r="AF3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG3" s="7">
+      <c r="AG3" s="8">
         <v>1</v>
       </c>
-      <c r="AH3" s="7">
+      <c r="AH3" s="8">
         <v>778</v>
       </c>
     </row>
@@ -1808,7 +1814,7 @@
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1817,49 +1823,49 @@
       <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>100</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>-21000</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="8">
         <v>267000</v>
       </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
         <v>23</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="8">
         <v>100</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
+      <c r="P4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8">
         <v>468</v>
       </c>
       <c r="T4" s="1" t="s">
@@ -1868,25 +1874,25 @@
       <c r="U4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="8">
         <v>288000</v>
       </c>
-      <c r="W4" s="7">
-        <v>0</v>
-      </c>
-      <c r="X4" s="7">
+      <c r="W4" s="8">
+        <v>0</v>
+      </c>
+      <c r="X4" s="8">
         <v>44</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="8">
         <v>61812</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="8">
         <v>71</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AB4" s="8">
         <v>420000</v>
       </c>
       <c r="AC4" s="1" t="s">
@@ -1901,10 +1907,10 @@
       <c r="AF4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG4" s="7">
+      <c r="AG4" s="8">
         <v>1</v>
       </c>
-      <c r="AH4" s="7">
+      <c r="AH4" s="8">
         <v>778</v>
       </c>
     </row>
@@ -1912,7 +1918,7 @@
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1921,49 +1927,49 @@
       <c r="D5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>100</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>58000</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="8">
         <v>318000</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="8">
         <v>3</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="8">
         <v>1</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="8">
         <v>100</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
+      <c r="P5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0</v>
+      </c>
+      <c r="S5" s="8">
         <v>3304</v>
       </c>
       <c r="T5" s="1" t="s">
@@ -1972,25 +1978,25 @@
       <c r="U5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="8">
         <v>250000</v>
       </c>
-      <c r="W5" s="7">
+      <c r="W5" s="8">
         <v>2</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="8">
         <v>6</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="8">
         <v>64625</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="8">
         <v>181</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="8">
         <v>162900</v>
       </c>
       <c r="AC5" s="1" t="s">
@@ -2005,10 +2011,10 @@
       <c r="AF5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG5" s="7">
+      <c r="AG5" s="8">
         <v>1</v>
       </c>
-      <c r="AH5" s="7">
+      <c r="AH5" s="8">
         <v>778</v>
       </c>
     </row>
@@ -2016,7 +2022,7 @@
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2025,49 +2031,49 @@
       <c r="D6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>100</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="8">
         <v>34000</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="8">
         <v>299000</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="8">
         <v>1</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="8">
         <v>2</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="8">
         <v>100</v>
       </c>
-      <c r="P6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0</v>
-      </c>
-      <c r="S6" s="7">
+      <c r="P6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8">
         <v>123</v>
       </c>
       <c r="T6" s="1" t="s">
@@ -2076,25 +2082,25 @@
       <c r="U6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="8">
         <v>264000</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="8">
         <v>1</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="8">
         <v>9</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Y6" s="8">
         <v>240687</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AA6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="7">
+      <c r="AA6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="8">
         <v>395200</v>
       </c>
       <c r="AC6" s="1" t="s">
@@ -2109,10 +2115,10 @@
       <c r="AF6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG6" s="7">
+      <c r="AG6" s="8">
         <v>1</v>
       </c>
-      <c r="AH6" s="7">
+      <c r="AH6" s="8">
         <v>778</v>
       </c>
     </row>
@@ -2120,7 +2126,7 @@
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2129,49 +2135,49 @@
       <c r="D7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>100</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="8">
         <v>-90000</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="8">
         <v>669000</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="8">
         <v>3</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="8">
         <v>3</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="8">
         <v>100</v>
       </c>
-      <c r="P7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7">
+      <c r="P7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
         <v>2162</v>
       </c>
       <c r="T7" s="1" t="s">
@@ -2180,25 +2186,25 @@
       <c r="U7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="8">
         <v>759000</v>
       </c>
-      <c r="W7" s="7">
-        <v>0</v>
-      </c>
-      <c r="X7" s="7">
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="8">
         <v>11</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="8">
         <v>60991</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="8">
         <v>128</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AB7" s="8">
         <v>760500</v>
       </c>
       <c r="AC7" s="1" t="s">
@@ -2213,10 +2219,10 @@
       <c r="AF7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG7" s="7">
+      <c r="AG7" s="8">
         <v>1</v>
       </c>
-      <c r="AH7" s="7">
+      <c r="AH7" s="8">
         <v>778</v>
       </c>
     </row>
@@ -2224,7 +2230,7 @@
       <c r="A8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2233,49 +2239,49 @@
       <c r="D8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>100</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="8">
         <v>-5000</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="8">
         <v>655000</v>
       </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
         <v>3</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="8">
         <v>100</v>
       </c>
-      <c r="P8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7">
+      <c r="P8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="8">
         <v>2162</v>
       </c>
       <c r="T8" s="1" t="s">
@@ -2284,25 +2290,25 @@
       <c r="U8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="8">
         <v>655000</v>
       </c>
-      <c r="W8" s="7">
-        <v>0</v>
-      </c>
-      <c r="X8" s="7">
+      <c r="W8" s="8">
+        <v>0</v>
+      </c>
+      <c r="X8" s="8">
         <v>9</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="8">
         <v>60991</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA8" s="8">
         <v>128</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AB8" s="8">
         <v>760500</v>
       </c>
       <c r="AC8" s="1" t="s">
@@ -2317,10 +2323,10 @@
       <c r="AF8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG8" s="7">
+      <c r="AG8" s="8">
         <v>1</v>
       </c>
-      <c r="AH8" s="7">
+      <c r="AH8" s="8">
         <v>778</v>
       </c>
     </row>
@@ -2328,7 +2334,7 @@
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2337,49 +2343,49 @@
       <c r="D9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>100</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="8">
         <v>11000</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="8">
         <v>150000</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="8">
         <v>171</v>
       </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8" t="s">
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="8">
         <v>100</v>
       </c>
-      <c r="P9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7">
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8">
         <v>934</v>
       </c>
       <c r="T9" s="1" t="s">
@@ -2388,25 +2394,25 @@
       <c r="U9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="8">
         <v>138000</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="8">
         <v>1</v>
       </c>
-      <c r="X9" s="7">
+      <c r="X9" s="8">
         <v>5</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="Y9" s="8">
         <v>184560</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AA9" s="8">
         <v>7</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AB9" s="8">
         <v>264800</v>
       </c>
       <c r="AC9" s="1" t="s">
@@ -2421,10 +2427,10 @@
       <c r="AF9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG9" s="7">
+      <c r="AG9" s="8">
         <v>2</v>
       </c>
-      <c r="AH9" s="7">
+      <c r="AH9" s="8">
         <v>778</v>
       </c>
     </row>
@@ -2432,7 +2438,7 @@
       <c r="A10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2441,49 +2447,49 @@
       <c r="D10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="8">
         <v>100</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="8">
         <v>16000</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="8">
         <v>77000</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="8">
         <v>7</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="8">
         <v>1</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="8">
         <v>100</v>
       </c>
-      <c r="P10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0</v>
-      </c>
-      <c r="S10" s="7">
+      <c r="P10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0</v>
+      </c>
+      <c r="S10" s="8">
         <v>348</v>
       </c>
       <c r="T10" s="1" t="s">
@@ -2492,25 +2498,25 @@
       <c r="U10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V10" s="8">
         <v>61000</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W10" s="8">
         <v>1</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="8">
         <v>8</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="Y10" s="8">
         <v>102856</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA10" s="8">
         <v>4</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AB10" s="8">
         <v>47500</v>
       </c>
       <c r="AC10" s="1" t="s">
@@ -2525,10 +2531,10 @@
       <c r="AF10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG10" s="7">
+      <c r="AG10" s="8">
         <v>2</v>
       </c>
-      <c r="AH10" s="7">
+      <c r="AH10" s="8">
         <v>778</v>
       </c>
     </row>
@@ -2536,7 +2542,7 @@
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>119</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2545,49 +2551,49 @@
       <c r="D11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>100</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
         <v>4000</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="8">
         <v>160000</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="8">
         <v>2</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="8">
         <v>4</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="8">
         <v>100</v>
       </c>
-      <c r="P11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
-        <v>0</v>
-      </c>
-      <c r="S11" s="7">
+      <c r="P11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0</v>
+      </c>
+      <c r="S11" s="8">
         <v>1876</v>
       </c>
       <c r="T11" s="1" t="s">
@@ -2596,25 +2602,25 @@
       <c r="U11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V11" s="7">
+      <c r="V11" s="8">
         <v>157000</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W11" s="8">
         <v>1</v>
       </c>
-      <c r="X11" s="7">
+      <c r="X11" s="8">
         <v>14</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="Y11" s="8">
         <v>54256</v>
       </c>
       <c r="Z11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="AA11" s="8">
         <v>88</v>
       </c>
-      <c r="AB11" s="7">
+      <c r="AB11" s="8">
         <v>99000</v>
       </c>
       <c r="AC11" s="1" t="s">
@@ -2629,10 +2635,10 @@
       <c r="AF11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG11" s="7">
+      <c r="AG11" s="8">
         <v>2</v>
       </c>
-      <c r="AH11" s="7">
+      <c r="AH11" s="8">
         <v>778</v>
       </c>
     </row>
@@ -2640,7 +2646,7 @@
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2649,49 +2655,49 @@
       <c r="D12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <v>100</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <v>11000</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="8">
         <v>150000</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="8">
         <v>9</v>
       </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8" t="s">
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="8">
         <v>100</v>
       </c>
-      <c r="P12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q12" s="10">
+      <c r="P12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="11">
         <v>2</v>
       </c>
-      <c r="R12" s="7">
-        <v>0</v>
-      </c>
-      <c r="S12" s="7">
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+      <c r="S12" s="8">
         <v>112</v>
       </c>
       <c r="T12" s="1" t="s">
@@ -2700,25 +2706,25 @@
       <c r="U12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="8">
         <v>138000</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="8">
         <v>1</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="8">
         <v>27</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="8">
         <v>132082</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AA12" s="8">
         <v>6</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="8">
         <v>175100</v>
       </c>
       <c r="AC12" s="1" t="s">
@@ -2733,10 +2739,10 @@
       <c r="AF12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG12" s="7">
+      <c r="AG12" s="8">
         <v>2</v>
       </c>
-      <c r="AH12" s="7">
+      <c r="AH12" s="8">
         <v>778</v>
       </c>
     </row>
@@ -2744,7 +2750,7 @@
       <c r="A13" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>135</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2753,49 +2759,49 @@
       <c r="D13" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="8">
         <v>100</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="8">
         <v>23000</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="8">
         <v>515000</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="8">
         <v>5</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="8">
         <v>2</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="8">
         <v>100</v>
       </c>
-      <c r="P13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>0</v>
-      </c>
-      <c r="R13" s="7">
-        <v>0</v>
-      </c>
-      <c r="S13" s="7">
+      <c r="P13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0</v>
+      </c>
+      <c r="S13" s="8">
         <v>170</v>
       </c>
       <c r="T13" s="1" t="s">
@@ -2804,25 +2810,25 @@
       <c r="U13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V13" s="8">
         <v>495000</v>
       </c>
-      <c r="W13" s="7">
+      <c r="W13" s="8">
         <v>1</v>
       </c>
-      <c r="X13" s="7">
+      <c r="X13" s="8">
         <v>8</v>
       </c>
-      <c r="Y13" s="7">
+      <c r="Y13" s="8">
         <v>69207</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="AA13" s="8">
         <v>9</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AB13" s="8">
         <v>339500</v>
       </c>
       <c r="AC13" s="1" t="s">
@@ -2837,10 +2843,10 @@
       <c r="AF13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG13" s="7">
+      <c r="AG13" s="8">
         <v>2</v>
       </c>
-      <c r="AH13" s="7">
+      <c r="AH13" s="8">
         <v>778</v>
       </c>
     </row>
@@ -2848,7 +2854,7 @@
       <c r="A14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>143</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2857,49 +2863,49 @@
       <c r="D14" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="8">
         <v>100</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="8">
         <v>30000</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="8">
         <v>226000</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="8">
         <v>1</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="8">
         <v>3</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="8">
         <v>100</v>
       </c>
-      <c r="P14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-      <c r="R14" s="7">
-        <v>0</v>
-      </c>
-      <c r="S14" s="7">
+      <c r="P14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0</v>
+      </c>
+      <c r="R14" s="8">
+        <v>0</v>
+      </c>
+      <c r="S14" s="8">
         <v>378</v>
       </c>
       <c r="T14" s="1" t="s">
@@ -2908,25 +2914,25 @@
       <c r="U14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="8">
         <v>189000</v>
       </c>
-      <c r="W14" s="7">
+      <c r="W14" s="8">
         <v>1</v>
       </c>
-      <c r="X14" s="7">
+      <c r="X14" s="8">
         <v>15</v>
       </c>
-      <c r="Y14" s="7">
+      <c r="Y14" s="8">
         <v>53210</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AA14" s="8">
         <v>22</v>
       </c>
-      <c r="AB14" s="5"/>
+      <c r="AB14" s="4"/>
       <c r="AC14" s="1" t="s">
         <v>147</v>
       </c>
@@ -2939,10 +2945,10 @@
       <c r="AF14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG14" s="7">
+      <c r="AG14" s="8">
         <v>3</v>
       </c>
-      <c r="AH14" s="7">
+      <c r="AH14" s="8">
         <v>778</v>
       </c>
     </row>
@@ -2950,7 +2956,7 @@
       <c r="A15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>151</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2959,49 +2965,49 @@
       <c r="D15" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="8">
         <v>100</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="8">
         <v>5000</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="8">
         <v>150000</v>
       </c>
-      <c r="L15" s="7">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
         <v>2</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="8">
         <v>100</v>
       </c>
-      <c r="P15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>0</v>
-      </c>
-      <c r="R15" s="7">
-        <v>0</v>
-      </c>
-      <c r="S15" s="7">
+      <c r="P15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>0</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0</v>
+      </c>
+      <c r="S15" s="8">
         <v>140</v>
       </c>
       <c r="T15" s="1" t="s">
@@ -3010,25 +3016,25 @@
       <c r="U15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V15" s="8">
         <v>150000</v>
       </c>
-      <c r="W15" s="7">
-        <v>0</v>
-      </c>
-      <c r="X15" s="7">
+      <c r="W15" s="8">
+        <v>0</v>
+      </c>
+      <c r="X15" s="8">
         <v>22</v>
       </c>
-      <c r="Y15" s="7">
+      <c r="Y15" s="8">
         <v>111199</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="AA15" s="8">
         <v>4</v>
       </c>
-      <c r="AB15" s="7">
+      <c r="AB15" s="8">
         <v>148600</v>
       </c>
       <c r="AC15" s="1" t="s">
@@ -3043,10 +3049,10 @@
       <c r="AF15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG15" s="7">
+      <c r="AG15" s="8">
         <v>3</v>
       </c>
-      <c r="AH15" s="7">
+      <c r="AH15" s="8">
         <v>778</v>
       </c>
     </row>
@@ -3054,7 +3060,7 @@
       <c r="A16" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -3063,49 +3069,49 @@
       <c r="D16" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="8">
         <v>100</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="8">
         <v>-65000</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="8">
         <v>270000</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="8">
         <v>79</v>
       </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="8" t="s">
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="8">
         <v>100</v>
       </c>
-      <c r="P16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
-        <v>0</v>
-      </c>
-      <c r="S16" s="7">
+      <c r="P16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0</v>
+      </c>
+      <c r="S16" s="8">
         <v>117</v>
       </c>
       <c r="T16" s="1" t="s">
@@ -3114,25 +3120,25 @@
       <c r="U16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="8">
         <v>332000</v>
       </c>
-      <c r="W16" s="7">
+      <c r="W16" s="8">
         <v>1</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="8">
         <v>6</v>
       </c>
-      <c r="Y16" s="7">
+      <c r="Y16" s="8">
         <v>163432</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AA16" s="8">
         <v>2</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AB16" s="8">
         <v>373400</v>
       </c>
       <c r="AC16" s="1" t="s">
@@ -3147,10 +3153,10 @@
       <c r="AF16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG16" s="7">
+      <c r="AG16" s="8">
         <v>3</v>
       </c>
-      <c r="AH16" s="7">
+      <c r="AH16" s="8">
         <v>778</v>
       </c>
     </row>
@@ -3158,7 +3164,7 @@
       <c r="A17" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -3167,49 +3173,49 @@
       <c r="D17" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="8">
         <v>100</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="8">
         <v>25000</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="8">
         <v>395000</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="8">
         <v>1</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="8">
         <v>6</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="8">
         <v>100</v>
       </c>
-      <c r="P17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>0</v>
-      </c>
-      <c r="R17" s="7">
-        <v>0</v>
-      </c>
-      <c r="S17" s="7">
+      <c r="P17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0</v>
+      </c>
+      <c r="S17" s="8">
         <v>318</v>
       </c>
       <c r="T17" s="1" t="s">
@@ -3218,25 +3224,25 @@
       <c r="U17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="8">
         <v>355000</v>
       </c>
-      <c r="W17" s="7">
+      <c r="W17" s="8">
         <v>1</v>
       </c>
-      <c r="X17" s="7">
+      <c r="X17" s="8">
         <v>15</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="Y17" s="8">
         <v>100322</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AA17" s="7">
+      <c r="AA17" s="8">
         <v>99</v>
       </c>
-      <c r="AB17" s="7">
+      <c r="AB17" s="8">
         <v>625000</v>
       </c>
       <c r="AC17" s="1" t="s">
@@ -3251,10 +3257,10 @@
       <c r="AF17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG17" s="7">
+      <c r="AG17" s="8">
         <v>3</v>
       </c>
-      <c r="AH17" s="7">
+      <c r="AH17" s="8">
         <v>778</v>
       </c>
     </row>
@@ -3262,7 +3268,7 @@
       <c r="A18" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>173</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3271,49 +3277,49 @@
       <c r="D18" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="8">
         <v>100</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="8">
         <v>52000</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="8">
         <v>280000</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="8">
         <v>7</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="8">
         <v>1</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="8">
         <v>100</v>
       </c>
-      <c r="P18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>0</v>
-      </c>
-      <c r="R18" s="7">
-        <v>0</v>
-      </c>
-      <c r="S18" s="7">
+      <c r="P18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0</v>
+      </c>
+      <c r="S18" s="8">
         <v>185</v>
       </c>
       <c r="T18" s="1" t="s">
@@ -3322,25 +3328,25 @@
       <c r="U18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V18" s="8">
         <v>227000</v>
       </c>
-      <c r="W18" s="7">
+      <c r="W18" s="8">
         <v>1</v>
       </c>
-      <c r="X18" s="7">
+      <c r="X18" s="8">
         <v>10</v>
       </c>
-      <c r="Y18" s="7">
+      <c r="Y18" s="8">
         <v>117645</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA18" s="7">
+      <c r="AA18" s="8">
         <v>7</v>
       </c>
-      <c r="AB18" s="5"/>
+      <c r="AB18" s="4"/>
       <c r="AC18" s="1" t="s">
         <v>147</v>
       </c>
@@ -3353,10 +3359,10 @@
       <c r="AF18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG18" s="7">
+      <c r="AG18" s="8">
         <v>4</v>
       </c>
-      <c r="AH18" s="7">
+      <c r="AH18" s="8">
         <v>778</v>
       </c>
     </row>
@@ -3364,7 +3370,7 @@
       <c r="A19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>180</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3373,49 +3379,49 @@
       <c r="D19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="8">
         <v>100</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="8">
         <v>-35000</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="8">
         <v>200000</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="8">
         <v>78</v>
       </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="9" t="s">
+      <c r="M19" s="8">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="8">
         <v>100</v>
       </c>
-      <c r="P19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>0</v>
-      </c>
-      <c r="R19" s="7">
-        <v>0</v>
-      </c>
-      <c r="S19" s="7">
+      <c r="P19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0</v>
+      </c>
+      <c r="S19" s="8">
         <v>3000</v>
       </c>
       <c r="T19" s="1" t="s">
@@ -3424,25 +3430,25 @@
       <c r="U19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="V19" s="7">
+      <c r="V19" s="8">
         <v>235000</v>
       </c>
-      <c r="W19" s="7">
+      <c r="W19" s="8">
         <v>2</v>
       </c>
-      <c r="X19" s="7">
+      <c r="X19" s="8">
         <v>5</v>
       </c>
-      <c r="Y19" s="7">
+      <c r="Y19" s="8">
         <v>73437</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AA19" s="7">
+      <c r="AA19" s="8">
         <v>58</v>
       </c>
-      <c r="AB19" s="7">
+      <c r="AB19" s="8">
         <v>240000</v>
       </c>
       <c r="AC19" s="1" t="s">
@@ -3457,10 +3463,10 @@
       <c r="AF19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG19" s="7">
+      <c r="AG19" s="8">
         <v>4</v>
       </c>
-      <c r="AH19" s="7">
+      <c r="AH19" s="8">
         <v>778</v>
       </c>
     </row>
@@ -3468,7 +3474,7 @@
       <c r="A20" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>188</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3477,49 +3483,49 @@
       <c r="D20" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="8">
         <v>100</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="8">
         <v>43000</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="8">
         <v>175000</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="8">
         <v>5</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="8">
         <v>2</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="N20" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="8">
         <v>100</v>
       </c>
-      <c r="P20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q20" s="10">
+      <c r="P20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q20" s="11">
         <v>1</v>
       </c>
-      <c r="R20" s="7">
-        <v>0</v>
-      </c>
-      <c r="S20" s="7">
+      <c r="R20" s="8">
+        <v>0</v>
+      </c>
+      <c r="S20" s="8">
         <v>130</v>
       </c>
       <c r="T20" s="1" t="s">
@@ -3528,25 +3534,25 @@
       <c r="U20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V20" s="7">
+      <c r="V20" s="8">
         <v>131000</v>
       </c>
-      <c r="W20" s="7">
+      <c r="W20" s="8">
         <v>1</v>
       </c>
-      <c r="X20" s="7">
+      <c r="X20" s="8">
         <v>24</v>
       </c>
-      <c r="Y20" s="7">
+      <c r="Y20" s="8">
         <v>171796</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA20" s="7">
+      <c r="AA20" s="8">
         <v>12</v>
       </c>
-      <c r="AB20" s="7">
+      <c r="AB20" s="8">
         <v>130000</v>
       </c>
       <c r="AC20" s="1" t="s">
@@ -3561,10 +3567,10 @@
       <c r="AF20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG20" s="7">
+      <c r="AG20" s="8">
         <v>4</v>
       </c>
-      <c r="AH20" s="7">
+      <c r="AH20" s="8">
         <v>778</v>
       </c>
     </row>
@@ -3572,7 +3578,7 @@
       <c r="A21" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>195</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3581,49 +3587,49 @@
       <c r="D21" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="8">
         <v>100</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="8">
         <v>43000</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="8">
         <v>195000</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="8">
         <v>1</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="8">
         <v>5</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="8">
         <v>100</v>
       </c>
-      <c r="P21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>0</v>
-      </c>
-      <c r="R21" s="7">
-        <v>0</v>
-      </c>
-      <c r="S21" s="7">
+      <c r="P21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>0</v>
+      </c>
+      <c r="R21" s="8">
+        <v>0</v>
+      </c>
+      <c r="S21" s="8">
         <v>441</v>
       </c>
       <c r="T21" s="1" t="s">
@@ -3632,25 +3638,25 @@
       <c r="U21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V21" s="7">
+      <c r="V21" s="8">
         <v>195000</v>
       </c>
-      <c r="W21" s="7">
+      <c r="W21" s="8">
         <v>1</v>
       </c>
-      <c r="X21" s="7">
+      <c r="X21" s="8">
         <v>8</v>
       </c>
-      <c r="Y21" s="7">
+      <c r="Y21" s="8">
         <v>77749</v>
       </c>
       <c r="Z21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="7">
+      <c r="AA21" s="8">
         <v>10</v>
       </c>
-      <c r="AB21" s="5"/>
+      <c r="AB21" s="4"/>
       <c r="AC21" s="1" t="s">
         <v>147</v>
       </c>
@@ -3663,10 +3669,10 @@
       <c r="AF21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG21" s="7">
+      <c r="AG21" s="8">
         <v>4</v>
       </c>
-      <c r="AH21" s="7">
+      <c r="AH21" s="8">
         <v>778</v>
       </c>
     </row>
@@ -3674,7 +3680,7 @@
       <c r="A22" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>201</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3683,49 +3689,49 @@
       <c r="D22" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="8">
         <v>100</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="8">
         <v>33000</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="8">
         <v>109000</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="8">
         <v>7</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="8">
         <v>1</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="N22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="8">
         <v>100</v>
       </c>
-      <c r="P22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>0</v>
-      </c>
-      <c r="R22" s="7">
-        <v>0</v>
-      </c>
-      <c r="S22" s="7">
+      <c r="P22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0</v>
+      </c>
+      <c r="S22" s="8">
         <v>173</v>
       </c>
       <c r="T22" s="1" t="s">
@@ -3734,25 +3740,25 @@
       <c r="U22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V22" s="7">
+      <c r="V22" s="8">
         <v>76000</v>
       </c>
-      <c r="W22" s="7">
+      <c r="W22" s="8">
         <v>1</v>
       </c>
-      <c r="X22" s="7">
+      <c r="X22" s="8">
         <v>9</v>
       </c>
-      <c r="Y22" s="7">
+      <c r="Y22" s="8">
         <v>122705</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AA22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="7">
+      <c r="AA22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="8">
         <v>115000</v>
       </c>
       <c r="AC22" s="1" t="s">
@@ -3767,10 +3773,10 @@
       <c r="AF22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG22" s="7">
+      <c r="AG22" s="8">
         <v>5</v>
       </c>
-      <c r="AH22" s="7">
+      <c r="AH22" s="8">
         <v>778</v>
       </c>
     </row>
@@ -3778,7 +3784,7 @@
       <c r="A23" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>209</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3787,49 +3793,49 @@
       <c r="D23" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="8">
         <v>100</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="8">
         <v>31000</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="8">
         <v>233000</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="8">
         <v>1</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="8">
         <v>1</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="N23" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="8">
         <v>100</v>
       </c>
-      <c r="P23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>0</v>
-      </c>
-      <c r="R23" s="7">
-        <v>0</v>
-      </c>
-      <c r="S23" s="7">
+      <c r="P23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0</v>
+      </c>
+      <c r="S23" s="8">
         <v>110</v>
       </c>
       <c r="T23" s="1" t="s">
@@ -3838,25 +3844,25 @@
       <c r="U23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="7">
+      <c r="V23" s="8">
         <v>202000</v>
       </c>
-      <c r="W23" s="7">
+      <c r="W23" s="8">
         <v>1</v>
       </c>
-      <c r="X23" s="7">
+      <c r="X23" s="8">
         <v>5</v>
       </c>
-      <c r="Y23" s="7">
+      <c r="Y23" s="8">
         <v>126392</v>
       </c>
       <c r="Z23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AA23" s="7">
+      <c r="AA23" s="8">
         <v>4</v>
       </c>
-      <c r="AB23" s="7">
+      <c r="AB23" s="8">
         <v>380000</v>
       </c>
       <c r="AC23" s="1" t="s">
@@ -3871,10 +3877,10 @@
       <c r="AF23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG23" s="7">
+      <c r="AG23" s="8">
         <v>5</v>
       </c>
-      <c r="AH23" s="7">
+      <c r="AH23" s="8">
         <v>778</v>
       </c>
     </row>
@@ -3882,7 +3888,7 @@
       <c r="A24" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>215</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -3891,49 +3897,49 @@
       <c r="D24" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="8">
         <v>100</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="8">
         <v>18000</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="8">
         <v>167000</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="8">
         <v>24</v>
       </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="9" t="s">
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+      <c r="N24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="8">
         <v>100</v>
       </c>
-      <c r="P24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>0</v>
-      </c>
-      <c r="R24" s="7">
-        <v>0</v>
-      </c>
-      <c r="S24" s="7">
+      <c r="P24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>0</v>
+      </c>
+      <c r="R24" s="8">
+        <v>0</v>
+      </c>
+      <c r="S24" s="8">
         <v>118</v>
       </c>
       <c r="T24" s="1" t="s">
@@ -3942,25 +3948,25 @@
       <c r="U24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V24" s="7">
+      <c r="V24" s="8">
         <v>148000</v>
       </c>
-      <c r="W24" s="7">
-        <v>0</v>
-      </c>
-      <c r="X24" s="7">
+      <c r="W24" s="8">
+        <v>0</v>
+      </c>
+      <c r="X24" s="8">
         <v>5</v>
       </c>
-      <c r="Y24" s="7">
+      <c r="Y24" s="8">
         <v>106004</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AA24" s="7">
+      <c r="AA24" s="8">
         <v>3</v>
       </c>
-      <c r="AB24" s="7">
+      <c r="AB24" s="8">
         <v>148600</v>
       </c>
       <c r="AC24" s="1" t="s">
@@ -3975,10 +3981,10 @@
       <c r="AF24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG24" s="7">
+      <c r="AG24" s="8">
         <v>5</v>
       </c>
-      <c r="AH24" s="7">
+      <c r="AH24" s="8">
         <v>778</v>
       </c>
     </row>
@@ -3986,7 +3992,7 @@
       <c r="A25" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>222</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -3995,49 +4001,49 @@
       <c r="D25" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="8">
         <v>100</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="8">
         <v>-5000</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="8">
         <v>69000</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="8">
         <v>3</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="8">
         <v>3</v>
       </c>
-      <c r="N25" s="8" t="s">
+      <c r="N25" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="8">
         <v>100</v>
       </c>
-      <c r="P25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>0</v>
-      </c>
-      <c r="R25" s="7">
-        <v>0</v>
-      </c>
-      <c r="S25" s="7">
+      <c r="P25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>0</v>
+      </c>
+      <c r="R25" s="8">
+        <v>0</v>
+      </c>
+      <c r="S25" s="8">
         <v>374</v>
       </c>
       <c r="T25" s="1" t="s">
@@ -4046,25 +4052,25 @@
       <c r="U25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V25" s="7">
+      <c r="V25" s="8">
         <v>74000</v>
       </c>
-      <c r="W25" s="7">
+      <c r="W25" s="8">
         <v>1</v>
       </c>
-      <c r="X25" s="7">
+      <c r="X25" s="8">
         <v>8</v>
       </c>
-      <c r="Y25" s="7">
+      <c r="Y25" s="8">
         <v>182814</v>
       </c>
       <c r="Z25" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AA25" s="7">
+      <c r="AA25" s="8">
         <v>7</v>
       </c>
-      <c r="AB25" s="5"/>
+      <c r="AB25" s="4"/>
       <c r="AC25" s="1" t="s">
         <v>226</v>
       </c>
@@ -4077,10 +4083,10 @@
       <c r="AF25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG25" s="7">
+      <c r="AG25" s="8">
         <v>5</v>
       </c>
-      <c r="AH25" s="7">
+      <c r="AH25" s="8">
         <v>778</v>
       </c>
     </row>
@@ -4088,7 +4094,7 @@
       <c r="A26" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>229</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -4097,19 +4103,19 @@
       <c r="D26" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="8">
         <v>100</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="8" t="s">
+      <c r="F26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -4121,25 +4127,25 @@
       <c r="L26" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="9" t="s">
+      <c r="M26" s="8">
+        <v>0</v>
+      </c>
+      <c r="N26" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="8">
         <v>100</v>
       </c>
-      <c r="P26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>0</v>
-      </c>
-      <c r="R26" s="7">
-        <v>0</v>
-      </c>
-      <c r="S26" s="7">
+      <c r="P26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>0</v>
+      </c>
+      <c r="R26" s="8">
+        <v>0</v>
+      </c>
+      <c r="S26" s="8">
         <v>346</v>
       </c>
       <c r="T26" s="1" t="s">
@@ -4148,25 +4154,25 @@
       <c r="U26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V26" s="7">
+      <c r="V26" s="8">
         <v>77000</v>
       </c>
-      <c r="W26" s="7">
-        <v>0</v>
-      </c>
-      <c r="X26" s="7">
+      <c r="W26" s="8">
+        <v>0</v>
+      </c>
+      <c r="X26" s="8">
         <v>8</v>
       </c>
-      <c r="Y26" s="7">
+      <c r="Y26" s="8">
         <v>111135</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AA26" s="7">
+      <c r="AA26" s="8">
         <v>16</v>
       </c>
-      <c r="AB26" s="7">
+      <c r="AB26" s="8">
         <v>95000</v>
       </c>
       <c r="AC26" s="1" t="s">
@@ -4181,10 +4187,10 @@
       <c r="AF26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG26" s="7">
+      <c r="AG26" s="8">
         <v>5</v>
       </c>
-      <c r="AH26" s="7">
+      <c r="AH26" s="8">
         <v>778</v>
       </c>
     </row>
@@ -4192,7 +4198,7 @@
       <c r="A27" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>238</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -4201,7 +4207,7 @@
       <c r="D27" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="8">
         <v>64</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -4210,7 +4216,7 @@
       <c r="G27" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="8">
         <v>10000</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -4219,31 +4225,31 @@
       <c r="J27" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="8">
         <v>349000</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="8">
         <v>4</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="8">
         <v>2</v>
       </c>
-      <c r="N27" s="8" t="s">
+      <c r="N27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="8">
         <v>65</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q27" s="11">
         <v>1</v>
       </c>
-      <c r="R27" s="7">
-        <v>0</v>
-      </c>
-      <c r="S27" s="7">
+      <c r="R27" s="8">
+        <v>0</v>
+      </c>
+      <c r="S27" s="8">
         <v>1270</v>
       </c>
       <c r="T27" s="1" t="s">
@@ -4252,25 +4258,25 @@
       <c r="U27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V27" s="7">
+      <c r="V27" s="8">
         <v>315000</v>
       </c>
-      <c r="W27" s="7">
-        <v>0</v>
-      </c>
-      <c r="X27" s="7">
+      <c r="W27" s="8">
+        <v>0</v>
+      </c>
+      <c r="X27" s="8">
         <v>7</v>
       </c>
-      <c r="Y27" s="7">
+      <c r="Y27" s="8">
         <v>63021</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AA27" s="7">
+      <c r="AA27" s="8">
         <v>60</v>
       </c>
-      <c r="AB27" s="5"/>
+      <c r="AB27" s="4"/>
       <c r="AC27" s="1" t="s">
         <v>247</v>
       </c>
@@ -4283,10 +4289,10 @@
       <c r="AF27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG27" s="7">
+      <c r="AG27" s="8">
         <v>1</v>
       </c>
-      <c r="AH27" s="7">
+      <c r="AH27" s="8">
         <v>778</v>
       </c>
     </row>
@@ -4294,7 +4300,7 @@
       <c r="A28" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>250</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -4303,7 +4309,7 @@
       <c r="D28" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="8">
         <v>25</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -4312,7 +4318,7 @@
       <c r="G28" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="8">
         <v>15000</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -4321,31 +4327,31 @@
       <c r="J28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="8">
         <v>242000</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="8">
         <v>1</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="8">
         <v>13</v>
       </c>
-      <c r="N28" s="8" t="s">
+      <c r="N28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="8">
         <v>28</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="Q28" s="7">
-        <v>0</v>
-      </c>
-      <c r="R28" s="7">
-        <v>0</v>
-      </c>
-      <c r="S28" s="7">
+      <c r="Q28" s="8">
+        <v>0</v>
+      </c>
+      <c r="R28" s="8">
+        <v>0</v>
+      </c>
+      <c r="S28" s="8">
         <v>1168</v>
       </c>
       <c r="T28" s="1" t="s">
@@ -4354,25 +4360,25 @@
       <c r="U28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V28" s="7">
+      <c r="V28" s="8">
         <v>226000</v>
       </c>
-      <c r="W28" s="7">
-        <v>0</v>
-      </c>
-      <c r="X28" s="7">
+      <c r="W28" s="8">
+        <v>0</v>
+      </c>
+      <c r="X28" s="8">
         <v>25</v>
       </c>
-      <c r="Y28" s="7">
+      <c r="Y28" s="8">
         <v>81955</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA28" s="7">
+      <c r="AA28" s="8">
         <v>49</v>
       </c>
-      <c r="AB28" s="5"/>
+      <c r="AB28" s="4"/>
       <c r="AC28" s="1" t="s">
         <v>147</v>
       </c>
@@ -4385,10 +4391,10 @@
       <c r="AF28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG28" s="7">
+      <c r="AG28" s="8">
         <v>2</v>
       </c>
-      <c r="AH28" s="7">
+      <c r="AH28" s="8">
         <v>778</v>
       </c>
     </row>
@@ -4396,7 +4402,7 @@
       <c r="A29" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>259</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -4405,7 +4411,7 @@
       <c r="D29" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="8">
         <v>25</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -4414,7 +4420,7 @@
       <c r="G29" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="8">
         <v>1000</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -4423,31 +4429,31 @@
       <c r="J29" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="8">
         <v>290000</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="8">
         <v>4</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="8">
         <v>4</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="N29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="8">
         <v>27</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="Q29" s="11">
         <v>1</v>
       </c>
-      <c r="R29" s="7">
-        <v>0</v>
-      </c>
-      <c r="S29" s="7">
+      <c r="R29" s="8">
+        <v>0</v>
+      </c>
+      <c r="S29" s="8">
         <v>1325</v>
       </c>
       <c r="T29" s="1" t="s">
@@ -4456,25 +4462,25 @@
       <c r="U29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V29" s="7">
+      <c r="V29" s="8">
         <v>288000</v>
       </c>
-      <c r="W29" s="7">
-        <v>0</v>
-      </c>
-      <c r="X29" s="7">
+      <c r="W29" s="8">
+        <v>0</v>
+      </c>
+      <c r="X29" s="8">
         <v>32</v>
       </c>
-      <c r="Y29" s="7">
+      <c r="Y29" s="8">
         <v>89780</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AA29" s="7">
+      <c r="AA29" s="8">
         <v>10</v>
       </c>
-      <c r="AB29" s="7">
+      <c r="AB29" s="8">
         <v>410000</v>
       </c>
       <c r="AC29" s="1" t="s">
@@ -4489,10 +4495,10 @@
       <c r="AF29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG29" s="7">
+      <c r="AG29" s="8">
         <v>2</v>
       </c>
-      <c r="AH29" s="7">
+      <c r="AH29" s="8">
         <v>778</v>
       </c>
     </row>
@@ -4500,7 +4506,7 @@
       <c r="A30" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="7" t="s">
         <v>271</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -4509,7 +4515,7 @@
       <c r="D30" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="8">
         <v>24</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -4518,7 +4524,7 @@
       <c r="G30" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="8">
         <v>23000</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -4527,31 +4533,31 @@
       <c r="J30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="8">
         <v>198000</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="8">
         <v>3</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="8">
         <v>2</v>
       </c>
-      <c r="N30" s="8" t="s">
+      <c r="N30" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="8">
         <v>26</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="Q30" s="7">
-        <v>0</v>
-      </c>
-      <c r="R30" s="7">
-        <v>0</v>
-      </c>
-      <c r="S30" s="7">
+      <c r="Q30" s="8">
+        <v>0</v>
+      </c>
+      <c r="R30" s="8">
+        <v>0</v>
+      </c>
+      <c r="S30" s="8">
         <v>104</v>
       </c>
       <c r="T30" s="1" t="s">
@@ -4560,25 +4566,25 @@
       <c r="U30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V30" s="7">
+      <c r="V30" s="8">
         <v>175000</v>
       </c>
-      <c r="W30" s="7">
+      <c r="W30" s="8">
         <v>3</v>
       </c>
-      <c r="X30" s="7">
+      <c r="X30" s="8">
         <v>6</v>
       </c>
-      <c r="Y30" s="7">
+      <c r="Y30" s="8">
         <v>207900</v>
       </c>
       <c r="Z30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AA30" s="7">
+      <c r="AA30" s="8">
         <v>5</v>
       </c>
-      <c r="AB30" s="5"/>
+      <c r="AB30" s="4"/>
       <c r="AC30" s="1" t="s">
         <v>81</v>
       </c>
@@ -4591,10 +4597,10 @@
       <c r="AF30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG30" s="7">
+      <c r="AG30" s="8">
         <v>2</v>
       </c>
-      <c r="AH30" s="7">
+      <c r="AH30" s="8">
         <v>778</v>
       </c>
     </row>
@@ -4602,7 +4608,7 @@
       <c r="A31" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="7" t="s">
         <v>280</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -4611,7 +4617,7 @@
       <c r="D31" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="8">
         <v>24</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -4620,7 +4626,7 @@
       <c r="G31" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="8">
         <v>18000</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -4629,31 +4635,31 @@
       <c r="J31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="8">
         <v>214000</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="8">
         <v>9</v>
       </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="9" t="s">
+      <c r="M31" s="8">
+        <v>0</v>
+      </c>
+      <c r="N31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="8">
         <v>27</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="Q31" s="7">
-        <v>0</v>
-      </c>
-      <c r="R31" s="7">
-        <v>0</v>
-      </c>
-      <c r="S31" s="7">
+      <c r="Q31" s="8">
+        <v>0</v>
+      </c>
+      <c r="R31" s="8">
+        <v>0</v>
+      </c>
+      <c r="S31" s="8">
         <v>267</v>
       </c>
       <c r="T31" s="1" t="s">
@@ -4662,25 +4668,25 @@
       <c r="U31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="V31" s="7">
+      <c r="V31" s="8">
         <v>195000</v>
       </c>
-      <c r="W31" s="7">
+      <c r="W31" s="8">
         <v>2</v>
       </c>
-      <c r="X31" s="7">
+      <c r="X31" s="8">
         <v>6</v>
       </c>
-      <c r="Y31" s="7">
+      <c r="Y31" s="8">
         <v>74200</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AA31" s="7">
+      <c r="AA31" s="8">
         <v>4</v>
       </c>
-      <c r="AB31" s="7">
+      <c r="AB31" s="8">
         <v>320000</v>
       </c>
       <c r="AC31" s="1" t="s">
@@ -4695,10 +4701,10 @@
       <c r="AF31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG31" s="7">
+      <c r="AG31" s="8">
         <v>2</v>
       </c>
-      <c r="AH31" s="7">
+      <c r="AH31" s="8">
         <v>778</v>
       </c>
     </row>
@@ -4706,7 +4712,7 @@
       <c r="A32" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="7" t="s">
         <v>286</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -4715,7 +4721,7 @@
       <c r="D32" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="8">
         <v>22</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -4724,7 +4730,7 @@
       <c r="G32" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="8">
         <v>12000</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -4733,31 +4739,31 @@
       <c r="J32" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="8">
         <v>153000</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="8">
         <v>4</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="8">
         <v>12</v>
       </c>
-      <c r="N32" s="8" t="s">
+      <c r="N32" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="8">
         <v>25</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="Q32" s="7">
-        <v>0</v>
-      </c>
-      <c r="R32" s="7">
-        <v>0</v>
-      </c>
-      <c r="S32" s="7">
+      <c r="Q32" s="8">
+        <v>0</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0</v>
+      </c>
+      <c r="S32" s="8">
         <v>273</v>
       </c>
       <c r="T32" s="1" t="s">
@@ -4766,25 +4772,25 @@
       <c r="U32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="V32" s="7">
+      <c r="V32" s="8">
         <v>144000</v>
       </c>
-      <c r="W32" s="7">
+      <c r="W32" s="8">
         <v>2</v>
       </c>
-      <c r="X32" s="7">
+      <c r="X32" s="8">
         <v>28</v>
       </c>
-      <c r="Y32" s="7">
+      <c r="Y32" s="8">
         <v>224721</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AA32" s="7">
+      <c r="AA32" s="8">
         <v>6</v>
       </c>
-      <c r="AB32" s="7">
+      <c r="AB32" s="8">
         <v>108600</v>
       </c>
       <c r="AC32" s="1" t="s">
@@ -4799,10 +4805,10 @@
       <c r="AF32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG32" s="7">
+      <c r="AG32" s="8">
         <v>2</v>
       </c>
-      <c r="AH32" s="7">
+      <c r="AH32" s="8">
         <v>778</v>
       </c>
     </row>
@@ -4810,7 +4816,7 @@
       <c r="A33" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="7" t="s">
         <v>294</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -4819,7 +4825,7 @@
       <c r="D33" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="8">
         <v>22</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -4828,7 +4834,7 @@
       <c r="G33" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="8">
         <v>70000</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -4837,31 +4843,31 @@
       <c r="J33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="8">
         <v>295000</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="8">
         <v>2</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="8">
         <v>1</v>
       </c>
-      <c r="N33" s="9" t="s">
+      <c r="N33" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="8">
         <v>25</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="Q33" s="7">
-        <v>0</v>
-      </c>
-      <c r="R33" s="7">
-        <v>0</v>
-      </c>
-      <c r="S33" s="7">
+      <c r="Q33" s="8">
+        <v>0</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0</v>
+      </c>
+      <c r="S33" s="8">
         <v>357</v>
       </c>
       <c r="T33" s="1" t="s">
@@ -4870,25 +4876,25 @@
       <c r="U33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V33" s="7">
+      <c r="V33" s="8">
         <v>225000</v>
       </c>
-      <c r="W33" s="7">
-        <v>0</v>
-      </c>
-      <c r="X33" s="7">
+      <c r="W33" s="8">
+        <v>0</v>
+      </c>
+      <c r="X33" s="8">
         <v>20</v>
       </c>
-      <c r="Y33" s="7">
+      <c r="Y33" s="8">
         <v>71364</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AA33" s="7">
+      <c r="AA33" s="8">
         <v>42</v>
       </c>
-      <c r="AB33" s="7">
+      <c r="AB33" s="8">
         <v>281000</v>
       </c>
       <c r="AC33" s="1" t="s">
@@ -4903,10 +4909,10 @@
       <c r="AF33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG33" s="7">
+      <c r="AG33" s="8">
         <v>3</v>
       </c>
-      <c r="AH33" s="7">
+      <c r="AH33" s="8">
         <v>778</v>
       </c>
     </row>
@@ -4914,7 +4920,7 @@
       <c r="A34" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="7" t="s">
         <v>303</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -4923,7 +4929,7 @@
       <c r="D34" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="8">
         <v>21</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -4932,7 +4938,7 @@
       <c r="G34" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="8">
         <v>19000</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -4941,31 +4947,31 @@
       <c r="J34" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="8">
         <v>79000</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="8">
         <v>4</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="8">
         <v>1</v>
       </c>
-      <c r="N34" s="9" t="s">
+      <c r="N34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O34" s="8">
         <v>24</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="Q34" s="7">
-        <v>0</v>
-      </c>
-      <c r="R34" s="7">
-        <v>0</v>
-      </c>
-      <c r="S34" s="7">
+      <c r="Q34" s="8">
+        <v>0</v>
+      </c>
+      <c r="R34" s="8">
+        <v>0</v>
+      </c>
+      <c r="S34" s="8">
         <v>348</v>
       </c>
       <c r="T34" s="1" t="s">
@@ -4974,25 +4980,25 @@
       <c r="U34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="V34" s="7">
+      <c r="V34" s="8">
         <v>55000</v>
       </c>
-      <c r="W34" s="7">
+      <c r="W34" s="8">
         <v>2</v>
       </c>
-      <c r="X34" s="7">
+      <c r="X34" s="8">
         <v>13</v>
       </c>
-      <c r="Y34" s="7">
+      <c r="Y34" s="8">
         <v>102856</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AA34" s="7">
+      <c r="AA34" s="8">
         <v>4</v>
       </c>
-      <c r="AB34" s="7">
+      <c r="AB34" s="8">
         <v>47500</v>
       </c>
       <c r="AC34" s="1" t="s">
@@ -5007,10 +5013,10 @@
       <c r="AF34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG34" s="7">
+      <c r="AG34" s="8">
         <v>2</v>
       </c>
-      <c r="AH34" s="7">
+      <c r="AH34" s="8">
         <v>778</v>
       </c>
     </row>
@@ -5018,7 +5024,7 @@
       <c r="A35" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="7" t="s">
         <v>311</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -5027,7 +5033,7 @@
       <c r="D35" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="8">
         <v>20</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -5036,7 +5042,7 @@
       <c r="G35" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="8">
         <v>32000</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -5045,31 +5051,31 @@
       <c r="J35" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="8">
         <v>185000</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="8">
         <v>40</v>
       </c>
-      <c r="M35" s="7">
-        <v>0</v>
-      </c>
-      <c r="N35" s="8" t="s">
+      <c r="M35" s="8">
+        <v>0</v>
+      </c>
+      <c r="N35" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="O35" s="7">
+      <c r="O35" s="8">
         <v>23</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="Q35" s="7">
-        <v>0</v>
-      </c>
-      <c r="R35" s="7">
-        <v>0</v>
-      </c>
-      <c r="S35" s="7">
+      <c r="Q35" s="8">
+        <v>0</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0</v>
+      </c>
+      <c r="S35" s="8">
         <v>636</v>
       </c>
       <c r="T35" s="1" t="s">
@@ -5078,25 +5084,25 @@
       <c r="U35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V35" s="7">
+      <c r="V35" s="8">
         <v>153000</v>
       </c>
-      <c r="W35" s="7">
-        <v>0</v>
-      </c>
-      <c r="X35" s="7">
+      <c r="W35" s="8">
+        <v>0</v>
+      </c>
+      <c r="X35" s="8">
         <v>8</v>
       </c>
-      <c r="Y35" s="7">
+      <c r="Y35" s="8">
         <v>175665</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AA35" s="7">
+      <c r="AA35" s="8">
         <v>37</v>
       </c>
-      <c r="AB35" s="7">
+      <c r="AB35" s="8">
         <v>279700</v>
       </c>
       <c r="AC35" s="1" t="s">
@@ -5111,10 +5117,10 @@
       <c r="AF35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG35" s="7">
+      <c r="AG35" s="8">
         <v>1</v>
       </c>
-      <c r="AH35" s="7">
+      <c r="AH35" s="8">
         <v>778</v>
       </c>
     </row>
@@ -5122,7 +5128,7 @@
       <c r="A36" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>323</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -5131,7 +5137,7 @@
       <c r="D36" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="8">
         <v>20</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -5140,7 +5146,7 @@
       <c r="G36" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="8">
         <v>13000</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -5149,31 +5155,31 @@
       <c r="J36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="8">
         <v>175000</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="8">
         <v>1</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="8">
         <v>7</v>
       </c>
-      <c r="N36" s="9" t="s">
+      <c r="N36" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O36" s="8">
         <v>23</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="Q36" s="7">
-        <v>0</v>
-      </c>
-      <c r="R36" s="7">
-        <v>0</v>
-      </c>
-      <c r="S36" s="7">
+      <c r="Q36" s="8">
+        <v>0</v>
+      </c>
+      <c r="R36" s="8">
+        <v>0</v>
+      </c>
+      <c r="S36" s="8">
         <v>655</v>
       </c>
       <c r="T36" s="1" t="s">
@@ -5182,25 +5188,25 @@
       <c r="U36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V36" s="7">
+      <c r="V36" s="8">
         <v>161000</v>
       </c>
-      <c r="W36" s="7">
-        <v>0</v>
-      </c>
-      <c r="X36" s="7">
+      <c r="W36" s="8">
+        <v>0</v>
+      </c>
+      <c r="X36" s="8">
         <v>31</v>
       </c>
-      <c r="Y36" s="7">
+      <c r="Y36" s="8">
         <v>128397</v>
       </c>
       <c r="Z36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA36" s="7">
+      <c r="AA36" s="8">
         <v>47</v>
       </c>
-      <c r="AB36" s="5"/>
+      <c r="AB36" s="4"/>
       <c r="AC36" s="1" t="s">
         <v>192</v>
       </c>
@@ -5213,10 +5219,10 @@
       <c r="AF36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG36" s="7">
+      <c r="AG36" s="8">
         <v>4</v>
       </c>
-      <c r="AH36" s="7">
+      <c r="AH36" s="8">
         <v>778</v>
       </c>
     </row>
